--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/20/seed3/result_data_KNN.xlsx
@@ -547,7 +547,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-13.176</v>
+        <v>-12.741</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -575,7 +575,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.428</v>
+        <v>-13.294</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.572</v>
+        <v>-10.616</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.962</v>
+        <v>-11.865</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -785,7 +785,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.384</v>
+        <v>-11.96</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -953,7 +953,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.992</v>
+        <v>-12.863</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.992</v>
+        <v>-13.837</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1387,7 +1387,7 @@
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.168</v>
+        <v>-11.134</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1513,7 +1513,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-13.42</v>
+        <v>-13.145</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1527,7 +1527,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-13.844</v>
+        <v>-12.892</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1541,7 +1541,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-13.258</v>
+        <v>-12.34</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-12.5</v>
+        <v>-12.858</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1569,7 +1569,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.586</v>
+        <v>-13.404</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1583,7 +1583,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.132</v>
+        <v>-11.895</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1611,7 +1611,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.97</v>
+        <v>-13.636</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.636</v>
+        <v>-12.37</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1863,7 +1863,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.842</v>
+        <v>-12.786</v>
       </c>
       <c r="D102" t="n">
         <v>-9.24</v>
